--- a/req/data/srp_new.xlsx
+++ b/req/data/srp_new.xlsx
@@ -1489,7 +1489,7 @@
         <v>-3</v>
       </c>
       <c r="AF2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG2">
         <v>65</v>
@@ -1516,7 +1516,7 @@
         <v>133</v>
       </c>
       <c r="AP2">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:42">
